--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R6b2ee54836314dcd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R285542f42b324598"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R285542f42b324598"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R877e5f576f1e4ac6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R877e5f576f1e4ac6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rbd06f1c1b44a4309"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rbd06f1c1b44a4309"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rc3e6d6c0498048a1"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -27,32 +27,32 @@
     <x:font/>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -65,37 +65,37 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF0000"/>
+        <x:fgColor rgb="FFFF0000"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="00FF00"/>
+        <x:fgColor rgb="FF00FF00"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="0000FF"/>
+        <x:fgColor rgb="FF0000FF"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF00"/>
+        <x:fgColor rgb="FFFFFF00"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="CCCCCC"/>
+        <x:fgColor rgb="FFCCCCCC"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="ADD8E6"/>
+        <x:fgColor rgb="FFADD8E6"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rc3e6d6c0498048a1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Re136df3f1bea4bce"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Re136df3f1bea4bce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rc7a0bfba0f484b54"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rc7a0bfba0f484b54"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rd5fc65ee88d34f39"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rd5fc65ee88d34f39"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R1668ac717c2c41aa"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R1668ac717c2c41aa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R1f6d6251daa84cdc"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R1f6d6251daa84cdc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R25998221e9ca41b7"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R25998221e9ca41b7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rc901852f9fa244d4"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rc901852f9fa244d4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rd2b7566e1a1c4757"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rd2b7566e1a1c4757"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R755dbd6a860b4723"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R755dbd6a860b4723"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R1e55467233ed40cb"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R1e55467233ed40cb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R3830b2aa6d1144bb"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R3830b2aa6d1144bb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Re2c9edf6323e4907"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Re2c9edf6323e4907"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rafae68cd7ca84938"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rafae68cd7ca84938"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rf14944151ba5494d"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rf14944151ba5494d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R9bf87180cd56487c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R9bf87180cd56487c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R336e41fc8c674938"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R336e41fc8c674938"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R381e1d3cea894943"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R381e1d3cea894943"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R67a4ca5460a04d8e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R67a4ca5460a04d8e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R102d78b71c8a4d81"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R102d78b71c8a4d81"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rc0e0eb56e0da43ba"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rc0e0eb56e0da43ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R6a07673bea2b4f0c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R6a07673bea2b4f0c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R42e3e2cbd2854b0d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R42e3e2cbd2854b0d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rf551bba9ab8a4b2c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rf551bba9ab8a4b2c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rac337b724f574a1c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rac337b724f574a1c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rf4aa077e95ca468d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rf4aa077e95ca468d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R0a7dd979a4774a05"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R0a7dd979a4774a05"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rf3de25c3c9e64371"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rf3de25c3c9e64371"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R0e752bb079cc4e7d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R0e752bb079cc4e7d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rbd286658a5644861"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rbd286658a5644861"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Racb9ec57010342c0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Racb9ec57010342c0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Re684188d52ee47f0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Re684188d52ee47f0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R6d57260b5aaa471e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R6d57260b5aaa471e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Re9dad887c63c4cf7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Re9dad887c63c4cf7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R44b318b1af1e4f30"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R44b318b1af1e4f30"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rb5e384ad241f4296"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rb5e384ad241f4296"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rc4c730fb4c3e4712"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rc4c730fb4c3e4712"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rc47d4aa5658e43e7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rc47d4aa5658e43e7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R2f5cee7889694be8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R2f5cee7889694be8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rd9da4729d5b04caa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rd9da4729d5b04caa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R3d6820773c4d41bf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/07_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R3d6820773c4d41bf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R3773f644c1424ac0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
